--- a/oblig4v2/runtime data.xlsx
+++ b/oblig4v2/runtime data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D22DDA-681E-4633-BCB7-7F16AA4B559A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99375C1-1FCF-4551-A537-2FBDE9D66118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,4569 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>ParaRadix vs Seqradix 1bit/digit</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.180999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>849.71900000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10982.798000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53520.639000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4946-4724-A7B9-7C6798E5A2D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8792.5300000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52176.038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4946-4724-A7B9-7C6798E5A2D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="539645080"/>
+        <c:axId val="539641472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="539645080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539641472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539641472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="539645080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ParaRadix vs Seqradix 4bit/digit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219.24100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400.2020000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13441.709000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1BA-4796-8FA3-607EB31F9478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.569000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.66900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1123.2729999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4859.0259999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1BA-4796-8FA3-607EB31F9478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="414698200"/>
+        <c:axId val="544855184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="414698200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544855184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544855184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="414698200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35455839895013125"/>
+          <c:y val="0.2729166666666667"/>
+          <c:w val="0.28532764654418197"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>ParaRadix vs Seqradix 8bit/digit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.321999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.29400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2405.6410000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12730.367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9BE-41D2-A905-BED2789C19A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.772999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3963.011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9BE-41D2-A905-BED2789C19A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="543101360"/>
+        <c:axId val="543102672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="543101360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543102672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543102672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="543101360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nb-NO"/>
+              <a:t>ParaRadix vs Seqradix 10bit/digit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2779.5740000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12523.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E9A-443E-819C-3A0ED549A156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7230000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.617999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1173.356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3962.7919999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E9A-443E-819C-3A0ED549A156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="79"/>
+        <c:overlap val="100"/>
+        <c:axId val="682971064"/>
+        <c:axId val="682979264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="682971064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="682979264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682979264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="682971064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B39F0B7-FA95-44B4-8C90-4CF1CE2ECF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF861C8-EEC6-452F-8649-73EAF9FFE675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62CAD71-C7F0-4702-8433-FD17B97C0416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F831463A-5F48-4BC8-93F0-04C3ECE08A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +5003,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="A1:D35"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,6 +5418,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
